--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -359,6 +359,54 @@
   </si>
   <si>
     <t>PermissionID</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>PredecesorID</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>My work</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Invitations</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>mi (menu item)</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>/Create</t>
+  </si>
+  <si>
+    <t>/CreateProject</t>
+  </si>
+  <si>
+    <t>/CreateProduct</t>
   </si>
 </sst>
 </file>
@@ -408,7 +456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -431,11 +479,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,13 +529,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,73 +853,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="N1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1064,22 +1141,22 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="7"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="13"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1091,26 +1168,26 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N12">
@@ -1310,12 +1387,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -1328,16 +1405,16 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="3"/>
@@ -1489,20 +1566,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="13" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="G30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -1514,34 +1591,34 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="12" t="s">
         <v>99</v>
       </c>
       <c r="N31">
@@ -1660,6 +1737,15 @@
       </c>
       <c r="J34">
         <v>3</v>
+      </c>
+      <c r="N34">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1690,6 +1776,15 @@
       <c r="J35">
         <v>4</v>
       </c>
+      <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1719,6 +1814,15 @@
       <c r="J36">
         <v>5</v>
       </c>
+      <c r="N36">
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1747,6 +1851,15 @@
       </c>
       <c r="K37">
         <v>1</v>
+      </c>
+      <c r="N37">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -1756,6 +1869,15 @@
       <c r="B38" t="s">
         <v>74</v>
       </c>
+      <c r="N38">
+        <v>23</v>
+      </c>
+      <c r="O38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1764,6 +1886,15 @@
       <c r="B39" t="s">
         <v>80</v>
       </c>
+      <c r="N39">
+        <v>24</v>
+      </c>
+      <c r="O39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1781,45 +1912,76 @@
       <c r="E40">
         <v>2</v>
       </c>
+      <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="E43" s="11" t="s">
+      <c r="C43" s="14"/>
+      <c r="E43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>96</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -1913,7 +2075,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>90</v>
       </c>
@@ -1930,7 +2092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>90</v>
       </c>
@@ -1950,23 +2112,53 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>90</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>90</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -1974,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>70</v>
       </c>
@@ -1982,9 +2174,169 @@
         <v>6</v>
       </c>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66">
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="13">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="J1:L1"/>
@@ -1996,6 +2348,8 @@
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martin Svarovsky</author>
+  </authors>
+  <commentList>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Svarovsky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Musi zustat. Do Labels se nemuzu odkazat pouze s ID. Table labels neni pouze pro Fields.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -408,12 +442,18 @@
   <si>
     <t>/CreateProduct</t>
   </si>
+  <si>
+    <t>PredecesorFieldID</t>
+  </si>
+  <si>
+    <t>PredecessorPanelID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,16 +487,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -499,11 +558,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,9 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -537,15 +630,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,11 +936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,12 +949,12 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.85546875" bestFit="1" customWidth="1"/>
@@ -853,73 +964,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="N1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1141,22 +1252,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="7"/>
-      <c r="K11" s="13" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="15"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1168,26 +1274,30 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="D12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N12">
@@ -1204,17 +1314,26 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1242,11 +1361,20 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1274,10 +1402,19 @@
       <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="F15">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
       <c r="K15">
@@ -1300,17 +1437,23 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
       </c>
-      <c r="F16">
-        <v>2</v>
+      <c r="D16">
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1336,6 +1479,18 @@
         <v>26</v>
       </c>
       <c r="C17" s="2"/>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="N17">
         <v>5</v>
       </c>
@@ -1354,6 +1509,18 @@
         <v>49</v>
       </c>
       <c r="C18" s="2"/>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
       <c r="N18">
         <v>6</v>
       </c>
@@ -1387,12 +1554,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -1405,16 +1572,16 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="3"/>
@@ -1438,7 +1605,7 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="24">
         <v>5</v>
       </c>
       <c r="N23">
@@ -1461,7 +1628,7 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="24">
         <v>6</v>
       </c>
       <c r="N24">
@@ -1484,7 +1651,7 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="24">
         <v>7</v>
       </c>
       <c r="N25">
@@ -1507,7 +1674,7 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="24">
         <v>8</v>
       </c>
       <c r="N26">
@@ -1530,7 +1697,7 @@
       <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="24">
         <v>9</v>
       </c>
       <c r="N27">
@@ -1547,7 +1714,7 @@
       <c r="N28">
         <v>13</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="9" t="s">
         <v>89</v>
       </c>
       <c r="Q28" t="s">
@@ -1566,20 +1733,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="G30" s="14" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -1591,34 +1758,34 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>99</v>
       </c>
       <c r="N31">
@@ -1635,19 +1802,19 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>-1</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="2">
@@ -1945,43 +2112,43 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="E43" s="13" t="s">
+      <c r="C43" s="16"/>
+      <c r="E43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>96</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -2175,28 +2342,28 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2337,21 +2504,22 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,8 +58,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martin Svarovsky</author>
+  </authors>
+  <commentList>
+    <comment ref="S2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Svarovsky:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Musi zustat. Do Labels se nemuzu odkazat pouze s ID. Table labels neni pouze pro Fields.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="156">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -448,12 +483,114 @@
   <si>
     <t>PredecessorPanelID</t>
   </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ProjetName</t>
+  </si>
+  <si>
+    <t>ProjetDesc</t>
+  </si>
+  <si>
+    <t>Maso</t>
+  </si>
+  <si>
+    <t>Jablko</t>
+  </si>
+  <si>
+    <t>Rohlik</t>
+  </si>
+  <si>
+    <t>Pytel jablek</t>
+  </si>
+  <si>
+    <t>Masova pecene</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Baleni rohliku</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>drop down</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>varbinary(max)</t>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+  </si>
+  <si>
+    <t>StringValue</t>
+  </si>
+  <si>
+    <t>IntValue</t>
+  </si>
+  <si>
+    <t>DateValue</t>
+  </si>
+  <si>
+    <t>FileValue</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Effdt</t>
+  </si>
+  <si>
+    <t>soubor</t>
+  </si>
+  <si>
+    <t>OtherReferences</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +637,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +660,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -595,11 +789,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +890,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,9 +938,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,31 +1279,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="N1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1252,17 +1567,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="K11" s="15" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="K11" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="43"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1286,14 +1601,14 @@
       <c r="D12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
       <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
@@ -1314,7 +1629,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2">
@@ -1437,7 +1752,7 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2">
@@ -1554,12 +1869,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -1605,7 +1920,7 @@
       <c r="C23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="18">
         <v>5</v>
       </c>
       <c r="N23">
@@ -1628,7 +1943,7 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="18">
         <v>6</v>
       </c>
       <c r="N24">
@@ -1651,7 +1966,7 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="18">
         <v>7</v>
       </c>
       <c r="N25">
@@ -1674,7 +1989,7 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="18">
         <v>8</v>
       </c>
       <c r="N26">
@@ -1697,7 +2012,7 @@
       <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="18">
         <v>9</v>
       </c>
       <c r="N27">
@@ -1733,20 +2048,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="G30" s="16" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="G30" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -2112,17 +2427,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="E43" s="15" t="s">
+      <c r="C43" s="44"/>
+      <c r="E43" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2342,13 +2657,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -2522,4 +2837,568 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="P1" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="P3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="P4" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="26">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="P5" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="P6" s="66">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="P7" s="69">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="63">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>2</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="22">
+        <v>2</v>
+      </c>
+      <c r="D15" s="67">
+        <v>3</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="61">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="24">
+        <v>2</v>
+      </c>
+      <c r="D17" s="61">
+        <v>3</v>
+      </c>
+      <c r="E17" s="62">
+        <v>3</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="62">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="24">
+        <v>2</v>
+      </c>
+      <c r="D18" s="61">
+        <v>3</v>
+      </c>
+      <c r="E18" s="65">
+        <v>4</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="24"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64">
+        <v>5</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="68">
+        <v>43393</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="24"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="24"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="M25" t="s">
+        <v>137</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="M26" t="s">
+        <v>138</v>
+      </c>
+      <c r="O26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="M27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C8:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -577,13 +577,13 @@
     <t>soubor</t>
   </si>
   <si>
-    <t>OtherReferences</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Deadline</t>
+  </si>
+  <si>
+    <t>OtherRef</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2844,7 @@
   <dimension ref="C1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,10 +3019,10 @@
         <v>5</v>
       </c>
       <c r="Q7" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="R7" s="69" t="s">
         <v>154</v>
-      </c>
-      <c r="R7" s="69" t="s">
-        <v>155</v>
       </c>
       <c r="S7" s="69">
         <v>9</v>
@@ -3071,7 +3071,7 @@
         <v>148</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">

--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="161">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -583,7 +583,22 @@
     <t>Deadline</t>
   </si>
   <si>
-    <t>OtherRef</t>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ReferenceID</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>NonFood</t>
+  </si>
+  <si>
+    <t>Bazar</t>
+  </si>
+  <si>
+    <t>MultiSelection</t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +720,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,11 +945,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,6 +992,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,31 +1007,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,31 +1339,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="F1" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="N1" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1567,17 +1627,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="K11" s="43" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="K11" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="73"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1604,11 +1664,11 @@
       <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
@@ -1869,12 +1929,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -2048,20 +2108,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="G30" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -2427,17 +2487,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="E43" s="43" t="s">
+      <c r="C43" s="74"/>
+      <c r="E43" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2657,13 +2717,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -2819,6 +2879,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="A11:E11"/>
@@ -2827,11 +2892,6 @@
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2844,7 +2904,7 @@
   <dimension ref="C1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,27 +2916,28 @@
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="P1" s="43" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="P1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
@@ -3001,128 +3062,128 @@
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="P6" s="66">
+      <c r="P6" s="58">
         <v>4</v>
       </c>
-      <c r="Q6" s="66" t="s">
+      <c r="Q6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="66" t="s">
+      <c r="R6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="66">
+      <c r="S6" s="58">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="P7" s="69">
+      <c r="P7" s="61">
         <v>5</v>
       </c>
-      <c r="Q7" s="69" t="s">
+      <c r="Q7" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="R7" s="69" t="s">
+      <c r="R7" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="S7" s="69">
+      <c r="S7" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="71" t="s">
-        <v>155</v>
+      <c r="L9" s="86" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="51" t="s">
         <v>141</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="55">
         <v>1</v>
       </c>
       <c r="E11" s="23">
         <v>1</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="72" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="24">
@@ -3134,13 +3195,13 @@
       <c r="E12" s="25">
         <v>2</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
     </row>
@@ -3154,13 +3215,13 @@
       <c r="E13" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
@@ -3174,13 +3235,13 @@
       <c r="E14" s="25">
         <v>2</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
     </row>
@@ -3188,142 +3249,210 @@
       <c r="C15" s="22">
         <v>2</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="59">
         <v>3</v>
       </c>
       <c r="E15" s="23">
         <v>1</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="72" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="P15" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="24">
         <v>2</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="53">
         <v>3</v>
       </c>
       <c r="E16" s="25">
         <v>2</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="73" t="s">
+      <c r="H16" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="61">
-        <v>3</v>
-      </c>
-      <c r="E17" s="62">
-        <v>3</v>
-      </c>
-      <c r="F17" s="54"/>
+      <c r="D17" s="53">
+        <v>3</v>
+      </c>
+      <c r="E17" s="54">
+        <v>3</v>
+      </c>
+      <c r="F17" s="48"/>
       <c r="G17" s="33"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J17" s="54"/>
+      <c r="I17" s="87">
+        <v>2</v>
+      </c>
+      <c r="J17" s="48"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L17" s="79">
+        <v>1</v>
+      </c>
+      <c r="P17" s="80">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>1</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="S17" s="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="D18" s="61">
-        <v>3</v>
-      </c>
-      <c r="E18" s="65">
+      <c r="D18" s="53">
+        <v>3</v>
+      </c>
+      <c r="E18" s="57">
         <v>4</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="33"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="75" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="65" t="s">
         <v>152</v>
       </c>
       <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="88">
+        <v>2</v>
+      </c>
+      <c r="R18" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="S18" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="24"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64">
+      <c r="D19" s="53"/>
+      <c r="E19" s="56">
         <v>5</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="33"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="68">
+      <c r="I19" s="47"/>
+      <c r="J19" s="60">
         <v>43393</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="48">
+        <v>3</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="S19" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="24"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="33"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="33"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="24"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="33"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="33"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="36"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -3336,7 +3465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -3349,7 +3478,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -3362,7 +3491,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>140</v>
       </c>
@@ -3370,21 +3499,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -3392,10 +3521,11 @@
       <c r="H31" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C8:L8"/>
+    <mergeCell ref="P15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="196">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -600,12 +601,117 @@
   <si>
     <t>MultiSelection</t>
   </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>RetailersProjects</t>
+  </si>
+  <si>
+    <t>RetailersPage</t>
+  </si>
+  <si>
+    <t>Ahoj</t>
+  </si>
+  <si>
+    <t>Zdar</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>FieldVal</t>
+  </si>
+  <si>
+    <t>NeAhoj</t>
+  </si>
+  <si>
+    <t>NeZdar</t>
+  </si>
+  <si>
+    <t>*a</t>
+  </si>
+  <si>
+    <t>*b</t>
+  </si>
+  <si>
+    <t>*c</t>
+  </si>
+  <si>
+    <t>*d</t>
+  </si>
+  <si>
+    <t>*f</t>
+  </si>
+  <si>
+    <t>ProjectFieldVal</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,8 +767,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,8 +849,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -876,11 +1002,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,6 +1140,40 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,12 +1189,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,28 +1201,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,7 +1542,7 @@
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,31 +1566,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="F1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="N1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1627,17 +1854,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="K11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="K11" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="73"/>
+      <c r="L11" s="78"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1664,11 +1891,11 @@
       <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
       <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
@@ -1929,12 +2156,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -2108,20 +2335,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="G30" s="74" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="G30" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -2487,17 +2714,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="E43" s="73" t="s">
+      <c r="C43" s="79"/>
+      <c r="E43" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2717,13 +2944,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -2879,11 +3106,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="A11:E11"/>
@@ -2892,6 +3114,11 @@
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2900,11 +3127,607 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H2:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="88"/>
+    </row>
+    <row r="3" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="106"/>
+    </row>
+    <row r="4" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J4" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="99"/>
+      <c r="M4" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="88"/>
+    </row>
+    <row r="5" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="K5" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H6" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H7" s="97">
+        <v>1</v>
+      </c>
+      <c r="I7" s="93">
+        <v>1</v>
+      </c>
+      <c r="J7" s="93">
+        <v>1</v>
+      </c>
+      <c r="K7" s="112">
+        <v>1</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="M7" s="102">
+        <v>1</v>
+      </c>
+      <c r="N7" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H8" s="98"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="112">
+        <v>2</v>
+      </c>
+      <c r="L8" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="103"/>
+      <c r="N8" s="98"/>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="98"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="97">
+        <v>2</v>
+      </c>
+      <c r="K9" s="90">
+        <v>3</v>
+      </c>
+      <c r="L9" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="103"/>
+      <c r="N9" s="98"/>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="98"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="90">
+        <v>4</v>
+      </c>
+      <c r="L10" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="103"/>
+      <c r="N10" s="98"/>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="98"/>
+      <c r="I11" s="97">
+        <v>2</v>
+      </c>
+      <c r="J11" s="97">
+        <v>3</v>
+      </c>
+      <c r="K11" s="92">
+        <v>5</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="103"/>
+      <c r="N11" s="98"/>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="90">
+        <v>6</v>
+      </c>
+      <c r="L12" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="M12" s="103"/>
+      <c r="N12" s="98"/>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="97">
+        <v>4</v>
+      </c>
+      <c r="K13" s="92">
+        <v>5</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="103"/>
+      <c r="N13" s="98"/>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="98"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="90">
+        <v>8</v>
+      </c>
+      <c r="L14" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="104"/>
+      <c r="N14" s="98"/>
+    </row>
+    <row r="15" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="98"/>
+      <c r="I15" s="93">
+        <v>1</v>
+      </c>
+      <c r="J15" s="93">
+        <v>1</v>
+      </c>
+      <c r="K15" s="112">
+        <v>1</v>
+      </c>
+      <c r="L15" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="102">
+        <v>2</v>
+      </c>
+      <c r="N15" s="98"/>
+    </row>
+    <row r="16" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="98"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="112">
+        <v>2</v>
+      </c>
+      <c r="L16" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="103"/>
+      <c r="N16" s="98"/>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H17" s="98"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="97">
+        <v>2</v>
+      </c>
+      <c r="K17" s="90">
+        <v>3</v>
+      </c>
+      <c r="L17" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="103"/>
+      <c r="N17" s="98"/>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="98"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="90">
+        <v>4</v>
+      </c>
+      <c r="L18" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="103"/>
+      <c r="N18" s="98"/>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H19" s="98"/>
+      <c r="I19" s="97">
+        <v>2</v>
+      </c>
+      <c r="J19" s="97">
+        <v>3</v>
+      </c>
+      <c r="K19" s="92">
+        <v>5</v>
+      </c>
+      <c r="L19" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="103"/>
+      <c r="N19" s="98"/>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="90">
+        <v>6</v>
+      </c>
+      <c r="L20" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="103"/>
+      <c r="N20" s="98"/>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="97">
+        <v>4</v>
+      </c>
+      <c r="K21" s="92">
+        <v>5</v>
+      </c>
+      <c r="L21" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="103"/>
+      <c r="N21" s="98"/>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="90">
+        <v>8</v>
+      </c>
+      <c r="L22" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="104"/>
+      <c r="N22" s="96"/>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H23" s="97">
+        <v>2</v>
+      </c>
+      <c r="I23" s="93">
+        <v>1</v>
+      </c>
+      <c r="J23" s="93">
+        <v>1</v>
+      </c>
+      <c r="K23" s="112">
+        <v>1</v>
+      </c>
+      <c r="L23" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="102">
+        <v>3</v>
+      </c>
+      <c r="N23" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="98"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="112">
+        <v>2</v>
+      </c>
+      <c r="L24" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="103"/>
+      <c r="N24" s="98"/>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H25" s="98"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="97">
+        <v>2</v>
+      </c>
+      <c r="K25" s="90">
+        <v>11</v>
+      </c>
+      <c r="L25" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="103"/>
+      <c r="N25" s="98"/>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H26" s="98"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="90">
+        <v>12</v>
+      </c>
+      <c r="L26" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" s="103"/>
+      <c r="N26" s="98"/>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H27" s="98"/>
+      <c r="I27" s="97">
+        <v>3</v>
+      </c>
+      <c r="J27" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="90">
+        <v>13</v>
+      </c>
+      <c r="L27" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" s="103"/>
+      <c r="N27" s="98"/>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="90">
+        <v>14</v>
+      </c>
+      <c r="L28" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="103"/>
+      <c r="N28" s="98"/>
+    </row>
+    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="90">
+        <v>15</v>
+      </c>
+      <c r="L29" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="M29" s="103"/>
+      <c r="N29" s="98"/>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="98"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="90">
+        <v>16</v>
+      </c>
+      <c r="L30" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" s="104"/>
+      <c r="N30" s="98"/>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="98"/>
+      <c r="I31" s="93">
+        <v>1</v>
+      </c>
+      <c r="J31" s="93">
+        <v>1</v>
+      </c>
+      <c r="K31" s="112">
+        <v>1</v>
+      </c>
+      <c r="L31" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" s="102">
+        <v>4</v>
+      </c>
+      <c r="N31" s="98"/>
+    </row>
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="98"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="112">
+        <v>2</v>
+      </c>
+      <c r="L32" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" s="103"/>
+      <c r="N32" s="98"/>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" s="98"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="97">
+        <v>2</v>
+      </c>
+      <c r="K33" s="90">
+        <v>11</v>
+      </c>
+      <c r="L33" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="103"/>
+      <c r="N33" s="98"/>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34" s="98"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="90">
+        <v>12</v>
+      </c>
+      <c r="L34" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" s="103"/>
+      <c r="N34" s="98"/>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35" s="98"/>
+      <c r="I35" s="97">
+        <v>3</v>
+      </c>
+      <c r="J35" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="K35" s="90">
+        <v>13</v>
+      </c>
+      <c r="L35" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="103"/>
+      <c r="N35" s="98"/>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="90">
+        <v>14</v>
+      </c>
+      <c r="L36" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="103"/>
+      <c r="N36" s="98"/>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="90">
+        <v>15</v>
+      </c>
+      <c r="L37" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="M37" s="103"/>
+      <c r="N37" s="98"/>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="90">
+        <v>16</v>
+      </c>
+      <c r="L38" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="M38" s="104"/>
+      <c r="N38" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="N7:N22"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="N23:N38"/>
+    <mergeCell ref="H23:H38"/>
+    <mergeCell ref="M23:M30"/>
+    <mergeCell ref="M31:M38"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="H7:H22"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M7:M14"/>
+    <mergeCell ref="M15:M22"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,22 +3745,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="66"/>
       <c r="J1" s="67"/>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
@@ -3090,27 +3913,27 @@
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="71" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -3119,19 +3942,19 @@
       <c r="G9" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="83" t="s">
+      <c r="J9" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="74" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3264,12 +4087,12 @@
       <c r="J15" s="50"/>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
-      <c r="P15" s="78" t="s">
+      <c r="P15" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="24">
@@ -3290,7 +4113,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
-      <c r="P16" s="82" t="s">
+      <c r="P16" s="70" t="s">
         <v>156</v>
       </c>
       <c r="Q16" s="43" t="s">
@@ -3315,19 +4138,18 @@
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="87">
-        <v>2</v>
+      <c r="H17" s="75" t="s">
+        <v>161</v>
       </c>
       <c r="J17" s="48"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="79">
-        <v>1</v>
-      </c>
-      <c r="P17" s="80">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="50">
+      <c r="L17" s="69">
+        <v>1</v>
+      </c>
+      <c r="P17" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="75">
         <v>1</v>
       </c>
       <c r="R17" s="50" t="s">
@@ -3356,10 +4178,10 @@
         <v>152</v>
       </c>
       <c r="L18" s="33"/>
-      <c r="P18" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="88">
+      <c r="P18" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="48">
         <v>2</v>
       </c>
       <c r="R18" s="48" t="s">
@@ -3384,10 +4206,10 @@
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="P19" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="48">
+      <c r="P19" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="75">
         <v>3</v>
       </c>
       <c r="R19" s="48" t="s">
@@ -3466,8 +4288,12 @@
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -3479,8 +4305,12 @@
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="89">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -3492,6 +4322,12 @@
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
       <c r="M28" t="s">
         <v>140</v>
       </c>
@@ -3500,25 +4336,61 @@
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="89">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>4</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="D31" s="18">
+        <v>2</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D32" s="18">
+        <v>2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="18">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770" tabRatio="633" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="201">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -605,12 +605,6 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>RetailersProjects</t>
-  </si>
-  <si>
-    <t>RetailersPage</t>
-  </si>
-  <si>
     <t>Ahoj</t>
   </si>
   <si>
@@ -668,9 +662,6 @@
     <t>*f</t>
   </si>
   <si>
-    <t>ProjectFieldVal</t>
-  </si>
-  <si>
     <t>ch</t>
   </si>
   <si>
@@ -705,6 +696,30 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>CPg1</t>
+  </si>
+  <si>
+    <t>CPn1</t>
+  </si>
+  <si>
+    <t>CPn2</t>
+  </si>
+  <si>
+    <t>RetailerPages</t>
+  </si>
+  <si>
+    <t>PagePanels</t>
+  </si>
+  <si>
+    <t>PanelFields</t>
+  </si>
+  <si>
+    <t>RetailerProjects</t>
+  </si>
+  <si>
+    <t>ProjectFieldsVal</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1140,9 +1155,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,97 +1180,101 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,31 +1582,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="F1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="N1" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1854,17 +1870,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="K11" s="78" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="K11" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="78"/>
+      <c r="L11" s="86"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1891,11 +1907,11 @@
       <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
       <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
@@ -2156,12 +2172,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -2335,20 +2351,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="G30" s="79" t="s">
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="G30" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -2714,17 +2730,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="E43" s="78" t="s">
+      <c r="C43" s="87"/>
+      <c r="E43" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2944,13 +2960,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -3128,594 +3144,603 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:N38"/>
+  <dimension ref="L2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="88" t="s">
+    <row r="2" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L2" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M3" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="103"/>
+    </row>
+    <row r="4" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="N4" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="108"/>
+      <c r="Q4" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="101"/>
+    </row>
+    <row r="5" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="O5" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+    </row>
+    <row r="6" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L6" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="93">
+        <v>1</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="85">
+        <v>1</v>
+      </c>
+      <c r="P7" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="104">
+        <v>1</v>
+      </c>
+      <c r="R7" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L8" s="94"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="85">
+        <v>2</v>
+      </c>
+      <c r="P8" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="88"/>
-    </row>
-    <row r="3" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I3" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="106"/>
-    </row>
-    <row r="4" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J4" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="99"/>
-      <c r="M4" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" s="88"/>
-    </row>
-    <row r="5" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="K5" s="88" t="s">
+      <c r="Q8" s="105"/>
+      <c r="R8" s="94"/>
+    </row>
+    <row r="9" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="94"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="78">
+        <v>3</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="94"/>
+    </row>
+    <row r="10" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L10" s="94"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="78">
+        <v>4</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="94"/>
+    </row>
+    <row r="11" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="94"/>
+      <c r="M11" s="93">
+        <v>2</v>
+      </c>
+      <c r="N11" s="93">
+        <v>3</v>
+      </c>
+      <c r="O11" s="79">
+        <v>5</v>
+      </c>
+      <c r="P11" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="94"/>
+    </row>
+    <row r="12" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="78">
+        <v>6</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="94"/>
+    </row>
+    <row r="13" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="93">
+        <v>4</v>
+      </c>
+      <c r="O13" s="79">
+        <v>5</v>
+      </c>
+      <c r="P13" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="94"/>
+    </row>
+    <row r="14" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="78">
+        <v>8</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="94"/>
+    </row>
+    <row r="15" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="94"/>
+      <c r="M15" s="98" t="str">
+        <f>M7</f>
+        <v>CPg1</v>
+      </c>
+      <c r="N15" s="98" t="str">
+        <f>N7</f>
+        <v>CPn1</v>
+      </c>
+      <c r="O15" s="85">
+        <v>1</v>
+      </c>
+      <c r="P15" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="104">
+        <v>2</v>
+      </c>
+      <c r="R15" s="94"/>
+    </row>
+    <row r="16" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L16" s="94"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="85">
+        <v>2</v>
+      </c>
+      <c r="P16" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="94"/>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="94"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="93" t="str">
+        <f>N9</f>
+        <v>CPn2</v>
+      </c>
+      <c r="O17" s="78">
+        <v>3</v>
+      </c>
+      <c r="P17" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="94"/>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="94"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="78">
+        <v>4</v>
+      </c>
+      <c r="P18" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="94"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19" s="94"/>
+      <c r="M19" s="93">
+        <v>2</v>
+      </c>
+      <c r="N19" s="93">
+        <v>3</v>
+      </c>
+      <c r="O19" s="79">
+        <v>5</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="94"/>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="78">
+        <v>6</v>
+      </c>
+      <c r="P20" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="94"/>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="93">
+        <v>4</v>
+      </c>
+      <c r="O21" s="79">
+        <v>5</v>
+      </c>
+      <c r="P21" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="94"/>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="78">
+        <v>8</v>
+      </c>
+      <c r="P22" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="95"/>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L23" s="93">
+        <v>2</v>
+      </c>
+      <c r="M23" s="98" t="str">
+        <f>M7</f>
+        <v>CPg1</v>
+      </c>
+      <c r="N23" s="98" t="str">
+        <f>N7</f>
+        <v>CPn1</v>
+      </c>
+      <c r="O23" s="85">
+        <v>1</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="104">
+        <v>3</v>
+      </c>
+      <c r="R23" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L24" s="94"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="85">
+        <v>2</v>
+      </c>
+      <c r="P24" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="94"/>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L25" s="94"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="93" t="str">
+        <f>N9</f>
+        <v>CPn2</v>
+      </c>
+      <c r="O25" s="78">
+        <v>11</v>
+      </c>
+      <c r="P25" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="94"/>
+    </row>
+    <row r="26" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="94"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="78">
+        <v>12</v>
+      </c>
+      <c r="P26" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="94"/>
+    </row>
+    <row r="27" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L27" s="94"/>
+      <c r="M27" s="93">
+        <v>3</v>
+      </c>
+      <c r="N27" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="78">
+        <v>13</v>
+      </c>
+      <c r="P27" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="94"/>
+    </row>
+    <row r="28" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="78">
+        <v>14</v>
+      </c>
+      <c r="P28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="94"/>
+    </row>
+    <row r="29" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" s="78">
+        <v>15</v>
+      </c>
+      <c r="P29" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="94"/>
+    </row>
+    <row r="30" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L30" s="94"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="78">
+        <v>16</v>
+      </c>
+      <c r="P30" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="94"/>
+    </row>
+    <row r="31" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L31" s="94"/>
+      <c r="M31" s="98" t="str">
+        <f>M7</f>
+        <v>CPg1</v>
+      </c>
+      <c r="N31" s="98" t="str">
+        <f>N7</f>
+        <v>CPn1</v>
+      </c>
+      <c r="O31" s="85">
+        <v>1</v>
+      </c>
+      <c r="P31" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-    </row>
-    <row r="6" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H6" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="68" t="s">
+      <c r="Q31" s="104">
+        <v>4</v>
+      </c>
+      <c r="R31" s="94"/>
+    </row>
+    <row r="32" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L32" s="94"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="85">
+        <v>2</v>
+      </c>
+      <c r="P32" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="94"/>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L33" s="94"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="93" t="str">
+        <f>N9</f>
+        <v>CPn2</v>
+      </c>
+      <c r="O33" s="78">
+        <v>11</v>
+      </c>
+      <c r="P33" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="94"/>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="94"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="78">
+        <v>12</v>
+      </c>
+      <c r="P34" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="94"/>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="94"/>
+      <c r="M35" s="93">
+        <v>3</v>
+      </c>
+      <c r="N35" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="78">
+        <v>13</v>
+      </c>
+      <c r="P35" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="94"/>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="78">
         <v>14</v>
       </c>
-      <c r="J6" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="109" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H7" s="97">
-        <v>1</v>
-      </c>
-      <c r="I7" s="93">
-        <v>1</v>
-      </c>
-      <c r="J7" s="93">
-        <v>1</v>
-      </c>
-      <c r="K7" s="112">
-        <v>1</v>
-      </c>
-      <c r="L7" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="M7" s="102">
-        <v>1</v>
-      </c>
-      <c r="N7" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H8" s="98"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="112">
-        <v>2</v>
-      </c>
-      <c r="L8" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="98"/>
-    </row>
-    <row r="9" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H9" s="98"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="97">
-        <v>2</v>
-      </c>
-      <c r="K9" s="90">
-        <v>3</v>
-      </c>
-      <c r="L9" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="98"/>
-    </row>
-    <row r="10" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="98"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="90">
-        <v>4</v>
-      </c>
-      <c r="L10" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="98"/>
-    </row>
-    <row r="11" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="98"/>
-      <c r="I11" s="97">
-        <v>2</v>
-      </c>
-      <c r="J11" s="97">
-        <v>3</v>
-      </c>
-      <c r="K11" s="92">
-        <v>5</v>
-      </c>
-      <c r="L11" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="103"/>
-      <c r="N11" s="98"/>
-    </row>
-    <row r="12" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="90">
-        <v>6</v>
-      </c>
-      <c r="L12" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="98"/>
-    </row>
-    <row r="13" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="97">
-        <v>4</v>
-      </c>
-      <c r="K13" s="92">
-        <v>5</v>
-      </c>
-      <c r="L13" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="M13" s="103"/>
-      <c r="N13" s="98"/>
-    </row>
-    <row r="14" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H14" s="98"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="90">
-        <v>8</v>
-      </c>
-      <c r="L14" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="98"/>
-    </row>
-    <row r="15" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="98"/>
-      <c r="I15" s="93">
-        <v>1</v>
-      </c>
-      <c r="J15" s="93">
-        <v>1</v>
-      </c>
-      <c r="K15" s="112">
-        <v>1</v>
-      </c>
-      <c r="L15" s="107" t="s">
-        <v>176</v>
-      </c>
-      <c r="M15" s="102">
-        <v>2</v>
-      </c>
-      <c r="N15" s="98"/>
-    </row>
-    <row r="16" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H16" s="98"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="112">
-        <v>2</v>
-      </c>
-      <c r="L16" s="101" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="103"/>
-      <c r="N16" s="98"/>
-    </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H17" s="98"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="97">
-        <v>2</v>
-      </c>
-      <c r="K17" s="90">
-        <v>3</v>
-      </c>
-      <c r="L17" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="M17" s="103"/>
-      <c r="N17" s="98"/>
-    </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H18" s="98"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="90">
-        <v>4</v>
-      </c>
-      <c r="L18" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="98"/>
-    </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H19" s="98"/>
-      <c r="I19" s="97">
-        <v>2</v>
-      </c>
-      <c r="J19" s="97">
-        <v>3</v>
-      </c>
-      <c r="K19" s="92">
-        <v>5</v>
-      </c>
-      <c r="L19" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="98"/>
-    </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="90">
-        <v>6</v>
-      </c>
-      <c r="L20" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="98"/>
-    </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="97">
-        <v>4</v>
-      </c>
-      <c r="K21" s="92">
-        <v>5</v>
-      </c>
-      <c r="L21" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" s="103"/>
-      <c r="N21" s="98"/>
-    </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="90">
-        <v>8</v>
-      </c>
-      <c r="L22" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="96"/>
-    </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="97">
-        <v>2</v>
-      </c>
-      <c r="I23" s="93">
-        <v>1</v>
-      </c>
-      <c r="J23" s="93">
-        <v>1</v>
-      </c>
-      <c r="K23" s="112">
-        <v>1</v>
-      </c>
-      <c r="L23" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="102">
-        <v>3</v>
-      </c>
-      <c r="N23" s="97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H24" s="98"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="112">
-        <v>2</v>
-      </c>
-      <c r="L24" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="M24" s="103"/>
-      <c r="N24" s="98"/>
-    </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="98"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="97">
-        <v>2</v>
-      </c>
-      <c r="K25" s="90">
-        <v>11</v>
-      </c>
-      <c r="L25" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="M25" s="103"/>
-      <c r="N25" s="98"/>
-    </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H26" s="98"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="90">
-        <v>12</v>
-      </c>
-      <c r="L26" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="103"/>
-      <c r="N26" s="98"/>
-    </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H27" s="98"/>
-      <c r="I27" s="97">
-        <v>3</v>
-      </c>
-      <c r="J27" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="90">
-        <v>13</v>
-      </c>
-      <c r="L27" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="M27" s="103"/>
-      <c r="N27" s="98"/>
-    </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="90">
-        <v>14</v>
-      </c>
-      <c r="L28" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="M28" s="103"/>
-      <c r="N28" s="98"/>
-    </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="90">
+      <c r="P36" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="94"/>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="O37" s="78">
         <v>15</v>
       </c>
-      <c r="L29" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="M29" s="103"/>
-      <c r="N29" s="98"/>
-    </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="98"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="90">
+      <c r="P37" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="94"/>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="78">
         <v>16</v>
       </c>
-      <c r="L30" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="M30" s="104"/>
-      <c r="N30" s="98"/>
-    </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H31" s="98"/>
-      <c r="I31" s="93">
-        <v>1</v>
-      </c>
-      <c r="J31" s="93">
-        <v>1</v>
-      </c>
-      <c r="K31" s="112">
-        <v>1</v>
-      </c>
-      <c r="L31" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="M31" s="102">
-        <v>4</v>
-      </c>
-      <c r="N31" s="98"/>
-    </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H32" s="98"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="112">
-        <v>2</v>
-      </c>
-      <c r="L32" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="M32" s="103"/>
-      <c r="N32" s="98"/>
-    </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H33" s="98"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="97">
-        <v>2</v>
-      </c>
-      <c r="K33" s="90">
-        <v>11</v>
-      </c>
-      <c r="L33" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="M33" s="103"/>
-      <c r="N33" s="98"/>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H34" s="98"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="90">
-        <v>12</v>
-      </c>
-      <c r="L34" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="M34" s="103"/>
-      <c r="N34" s="98"/>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H35" s="98"/>
-      <c r="I35" s="97">
-        <v>3</v>
-      </c>
-      <c r="J35" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="K35" s="90">
-        <v>13</v>
-      </c>
-      <c r="L35" s="90" t="s">
+      <c r="P38" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="M35" s="103"/>
-      <c r="N35" s="98"/>
-    </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="90">
-        <v>14</v>
-      </c>
-      <c r="L36" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="103"/>
-      <c r="N36" s="98"/>
-    </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="K37" s="90">
-        <v>15</v>
-      </c>
-      <c r="L37" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="M37" s="103"/>
-      <c r="N37" s="98"/>
-    </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="90">
-        <v>16</v>
-      </c>
-      <c r="L38" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="M38" s="104"/>
-      <c r="N38" s="96"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N7:N22"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="N23:N38"/>
-    <mergeCell ref="H23:H38"/>
-    <mergeCell ref="M23:M30"/>
-    <mergeCell ref="M31:M38"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="H7:H22"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M7:M14"/>
-    <mergeCell ref="M15:M22"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="R7:R22"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="R23:R38"/>
+    <mergeCell ref="L23:L38"/>
+    <mergeCell ref="Q23:Q30"/>
+    <mergeCell ref="Q31:Q38"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="L7:L22"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q7:Q14"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M23:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3745,22 +3770,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
       <c r="I1" s="66"/>
       <c r="J1" s="67"/>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
@@ -3913,27 +3938,27 @@
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="70" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -3942,19 +3967,19 @@
       <c r="G9" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="73" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4087,12 +4112,12 @@
       <c r="J15" s="50"/>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
-      <c r="P15" s="88" t="s">
+      <c r="P15" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="24">
@@ -4113,7 +4138,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
-      <c r="P16" s="70" t="s">
+      <c r="P16" s="69" t="s">
         <v>156</v>
       </c>
       <c r="Q16" s="43" t="s">
@@ -4138,18 +4163,18 @@
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="74" t="s">
         <v>161</v>
       </c>
       <c r="J17" s="48"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="69">
-        <v>1</v>
-      </c>
-      <c r="P17" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="75">
+      <c r="L17" s="68">
+        <v>1</v>
+      </c>
+      <c r="P17" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="74">
         <v>1</v>
       </c>
       <c r="R17" s="50" t="s">
@@ -4178,7 +4203,7 @@
         <v>152</v>
       </c>
       <c r="L18" s="33"/>
-      <c r="P18" s="77">
+      <c r="P18" s="76">
         <v>1</v>
       </c>
       <c r="Q18" s="48">
@@ -4206,10 +4231,10 @@
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="P19" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="75">
+      <c r="P19" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="74">
         <v>3</v>
       </c>
       <c r="R19" s="48" t="s">
@@ -4305,7 +4330,7 @@
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D27" s="89">
+      <c r="D27" s="77">
         <v>1</v>
       </c>
       <c r="E27" s="18">
@@ -4347,7 +4372,7 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="89">
+      <c r="D30" s="77">
         <v>1</v>
       </c>
       <c r="E30" s="18">

--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Martin\Osobni\Programovani\GitHubRepo\PDMSCore\PDMSCore\wwwroot\TestDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770" tabRatio="633" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12120" tabRatio="633" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
     <author>Martin Svarovsky</author>
   </authors>
   <commentList>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
     <author>Martin Svarovsky</author>
   </authors>
   <commentList>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="200">
   <si>
     <t>Technicke jmeno</t>
   </si>
@@ -716,16 +711,13 @@
     <t>PanelFields</t>
   </si>
   <si>
-    <t>RetailerProjects</t>
-  </si>
-  <si>
-    <t>ProjectFieldsVal</t>
+    <t>FieldsValues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1193,6 +1185,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,6 +1210,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,9 +1246,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,19 +1267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,7 +1539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1582,31 +1574,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="F1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="N1" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1870,17 +1862,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="K11" s="86" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="K11" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="88"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1907,11 +1899,11 @@
       <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
       <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
@@ -2172,12 +2164,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -2351,20 +2343,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="G30" s="87" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="G30" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -2730,17 +2722,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="E43" s="86" t="s">
+      <c r="C43" s="89"/>
+      <c r="E43" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2960,13 +2952,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -3143,611 +3135,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L2:R38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L2" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="101"/>
-    </row>
-    <row r="3" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="M3" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="N3" s="103"/>
-    </row>
-    <row r="4" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="N4" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="108"/>
-      <c r="Q4" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="R4" s="101"/>
-    </row>
-    <row r="5" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O5" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-    </row>
-    <row r="6" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L6" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L7" s="93">
-        <v>1</v>
-      </c>
-      <c r="M7" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="N7" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" s="85">
-        <v>1</v>
-      </c>
-      <c r="P7" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q7" s="104">
-        <v>1</v>
-      </c>
-      <c r="R7" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L8" s="94"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="85">
-        <v>2</v>
-      </c>
-      <c r="P8" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="94"/>
-    </row>
-    <row r="9" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L9" s="94"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="O9" s="78">
-        <v>3</v>
-      </c>
-      <c r="P9" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="94"/>
-    </row>
-    <row r="10" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L10" s="94"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="78">
-        <v>4</v>
-      </c>
-      <c r="P10" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="94"/>
-    </row>
-    <row r="11" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L11" s="94"/>
-      <c r="M11" s="93">
-        <v>2</v>
-      </c>
-      <c r="N11" s="93">
-        <v>3</v>
-      </c>
-      <c r="O11" s="79">
-        <v>5</v>
-      </c>
-      <c r="P11" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="94"/>
-    </row>
-    <row r="12" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="78">
-        <v>6</v>
-      </c>
-      <c r="P12" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="94"/>
-    </row>
-    <row r="13" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="93">
-        <v>4</v>
-      </c>
-      <c r="O13" s="79">
-        <v>5</v>
-      </c>
-      <c r="P13" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="94"/>
-    </row>
-    <row r="14" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L14" s="94"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="78">
-        <v>8</v>
-      </c>
-      <c r="P14" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="94"/>
-    </row>
-    <row r="15" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L15" s="94"/>
-      <c r="M15" s="98" t="str">
-        <f>M7</f>
-        <v>CPg1</v>
-      </c>
-      <c r="N15" s="98" t="str">
-        <f>N7</f>
-        <v>CPn1</v>
-      </c>
-      <c r="O15" s="85">
-        <v>1</v>
-      </c>
-      <c r="P15" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q15" s="104">
-        <v>2</v>
-      </c>
-      <c r="R15" s="94"/>
-    </row>
-    <row r="16" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L16" s="94"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="85">
-        <v>2</v>
-      </c>
-      <c r="P16" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="94"/>
-    </row>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="94"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="93" t="str">
-        <f>N9</f>
-        <v>CPn2</v>
-      </c>
-      <c r="O17" s="78">
-        <v>3</v>
-      </c>
-      <c r="P17" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="94"/>
-    </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="94"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="78">
-        <v>4</v>
-      </c>
-      <c r="P18" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="94"/>
-    </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L19" s="94"/>
-      <c r="M19" s="93">
-        <v>2</v>
-      </c>
-      <c r="N19" s="93">
-        <v>3</v>
-      </c>
-      <c r="O19" s="79">
-        <v>5</v>
-      </c>
-      <c r="P19" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="94"/>
-    </row>
-    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="78">
-        <v>6</v>
-      </c>
-      <c r="P20" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="94"/>
-    </row>
-    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="93">
-        <v>4</v>
-      </c>
-      <c r="O21" s="79">
-        <v>5</v>
-      </c>
-      <c r="P21" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="94"/>
-    </row>
-    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="78">
-        <v>8</v>
-      </c>
-      <c r="P22" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="95"/>
-    </row>
-    <row r="23" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L23" s="93">
-        <v>2</v>
-      </c>
-      <c r="M23" s="98" t="str">
-        <f>M7</f>
-        <v>CPg1</v>
-      </c>
-      <c r="N23" s="98" t="str">
-        <f>N7</f>
-        <v>CPn1</v>
-      </c>
-      <c r="O23" s="85">
-        <v>1</v>
-      </c>
-      <c r="P23" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="104">
-        <v>3</v>
-      </c>
-      <c r="R23" s="93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L24" s="94"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="85">
-        <v>2</v>
-      </c>
-      <c r="P24" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="94"/>
-    </row>
-    <row r="25" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L25" s="94"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="93" t="str">
-        <f>N9</f>
-        <v>CPn2</v>
-      </c>
-      <c r="O25" s="78">
-        <v>11</v>
-      </c>
-      <c r="P25" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="94"/>
-    </row>
-    <row r="26" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L26" s="94"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="78">
-        <v>12</v>
-      </c>
-      <c r="P26" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="94"/>
-    </row>
-    <row r="27" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L27" s="94"/>
-      <c r="M27" s="93">
-        <v>3</v>
-      </c>
-      <c r="N27" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="O27" s="78">
-        <v>13</v>
-      </c>
-      <c r="P27" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="94"/>
-    </row>
-    <row r="28" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="78">
-        <v>14</v>
-      </c>
-      <c r="P28" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="94"/>
-    </row>
-    <row r="29" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="O29" s="78">
-        <v>15</v>
-      </c>
-      <c r="P29" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="94"/>
-    </row>
-    <row r="30" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L30" s="94"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="78">
-        <v>16</v>
-      </c>
-      <c r="P30" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="94"/>
-    </row>
-    <row r="31" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L31" s="94"/>
-      <c r="M31" s="98" t="str">
-        <f>M7</f>
-        <v>CPg1</v>
-      </c>
-      <c r="N31" s="98" t="str">
-        <f>N7</f>
-        <v>CPn1</v>
-      </c>
-      <c r="O31" s="85">
-        <v>1</v>
-      </c>
-      <c r="P31" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q31" s="104">
-        <v>4</v>
-      </c>
-      <c r="R31" s="94"/>
-    </row>
-    <row r="32" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L32" s="94"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="85">
-        <v>2</v>
-      </c>
-      <c r="P32" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="94"/>
-    </row>
-    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L33" s="94"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="93" t="str">
-        <f>N9</f>
-        <v>CPn2</v>
-      </c>
-      <c r="O33" s="78">
-        <v>11</v>
-      </c>
-      <c r="P33" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="94"/>
-    </row>
-    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L34" s="94"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="78">
-        <v>12</v>
-      </c>
-      <c r="P34" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="94"/>
-    </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L35" s="94"/>
-      <c r="M35" s="93">
-        <v>3</v>
-      </c>
-      <c r="N35" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="O35" s="78">
-        <v>13</v>
-      </c>
-      <c r="P35" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="94"/>
-    </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="78">
-        <v>14</v>
-      </c>
-      <c r="P36" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="94"/>
-    </row>
-    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="O37" s="78">
-        <v>15</v>
-      </c>
-      <c r="P37" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="94"/>
-    </row>
-    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="78">
-        <v>16</v>
-      </c>
-      <c r="P38" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="R7:R22"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="R23:R38"/>
-    <mergeCell ref="L23:L38"/>
-    <mergeCell ref="Q23:Q30"/>
-    <mergeCell ref="Q31:Q38"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="L7:L22"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="Q7:Q14"/>
-    <mergeCell ref="Q15:Q22"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M23:M26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S34"/>
   <sheetViews>
@@ -3770,22 +3157,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="66"/>
       <c r="J1" s="67"/>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
@@ -3938,18 +3325,18 @@
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="44" t="s">
@@ -4112,12 +3499,12 @@
       <c r="J15" s="50"/>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
-      <c r="P15" s="101" t="s">
+      <c r="P15" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="24">
@@ -4428,4 +3815,605 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L2:R38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L2" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M3" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="108"/>
+    </row>
+    <row r="4" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="N4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="113"/>
+    </row>
+    <row r="5" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="O5" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+    </row>
+    <row r="6" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L6" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="99">
+        <v>1</v>
+      </c>
+      <c r="M7" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="85">
+        <v>1</v>
+      </c>
+      <c r="P7" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="109">
+        <v>1</v>
+      </c>
+      <c r="R7" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L8" s="100"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="85">
+        <v>2</v>
+      </c>
+      <c r="P8" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="100"/>
+    </row>
+    <row r="9" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="100"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="78">
+        <v>3</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="100"/>
+    </row>
+    <row r="10" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L10" s="100"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="78">
+        <v>4</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="100"/>
+    </row>
+    <row r="11" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="100"/>
+      <c r="M11" s="99">
+        <v>2</v>
+      </c>
+      <c r="N11" s="99">
+        <v>3</v>
+      </c>
+      <c r="O11" s="79">
+        <v>5</v>
+      </c>
+      <c r="P11" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="100"/>
+    </row>
+    <row r="12" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="78">
+        <v>6</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="100"/>
+    </row>
+    <row r="13" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="99">
+        <v>4</v>
+      </c>
+      <c r="O13" s="79">
+        <v>5</v>
+      </c>
+      <c r="P13" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="100"/>
+    </row>
+    <row r="14" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="100"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="78">
+        <v>8</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="100"/>
+    </row>
+    <row r="15" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="100"/>
+      <c r="M15" s="104" t="str">
+        <f>M7</f>
+        <v>CPg1</v>
+      </c>
+      <c r="N15" s="104" t="str">
+        <f>N7</f>
+        <v>CPn1</v>
+      </c>
+      <c r="O15" s="85">
+        <v>1</v>
+      </c>
+      <c r="P15" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="109">
+        <v>2</v>
+      </c>
+      <c r="R15" s="100"/>
+    </row>
+    <row r="16" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L16" s="100"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="85">
+        <v>2</v>
+      </c>
+      <c r="P16" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="100"/>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="100"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="99" t="str">
+        <f>N9</f>
+        <v>CPn2</v>
+      </c>
+      <c r="O17" s="78">
+        <v>3</v>
+      </c>
+      <c r="P17" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="100"/>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="100"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="78">
+        <v>4</v>
+      </c>
+      <c r="P18" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="100"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19" s="100"/>
+      <c r="M19" s="99">
+        <v>2</v>
+      </c>
+      <c r="N19" s="99">
+        <v>3</v>
+      </c>
+      <c r="O19" s="79">
+        <v>5</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="100"/>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="78">
+        <v>6</v>
+      </c>
+      <c r="P20" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="100"/>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="99">
+        <v>4</v>
+      </c>
+      <c r="O21" s="79">
+        <v>5</v>
+      </c>
+      <c r="P21" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="100"/>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="78">
+        <v>8</v>
+      </c>
+      <c r="P22" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="101"/>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L23" s="99">
+        <v>2</v>
+      </c>
+      <c r="M23" s="104" t="str">
+        <f>M7</f>
+        <v>CPg1</v>
+      </c>
+      <c r="N23" s="104" t="str">
+        <f>N7</f>
+        <v>CPn1</v>
+      </c>
+      <c r="O23" s="85">
+        <v>1</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="109">
+        <v>3</v>
+      </c>
+      <c r="R23" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L24" s="100"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="85">
+        <v>2</v>
+      </c>
+      <c r="P24" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="100"/>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L25" s="100"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="99" t="str">
+        <f>N9</f>
+        <v>CPn2</v>
+      </c>
+      <c r="O25" s="78">
+        <v>11</v>
+      </c>
+      <c r="P25" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="100"/>
+    </row>
+    <row r="26" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="100"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="78">
+        <v>12</v>
+      </c>
+      <c r="P26" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="100"/>
+    </row>
+    <row r="27" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L27" s="100"/>
+      <c r="M27" s="99">
+        <v>3</v>
+      </c>
+      <c r="N27" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="78">
+        <v>13</v>
+      </c>
+      <c r="P27" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="100"/>
+    </row>
+    <row r="28" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="78">
+        <v>14</v>
+      </c>
+      <c r="P28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="100"/>
+    </row>
+    <row r="29" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" s="78">
+        <v>15</v>
+      </c>
+      <c r="P29" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="100"/>
+    </row>
+    <row r="30" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L30" s="100"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="78">
+        <v>16</v>
+      </c>
+      <c r="P30" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="100"/>
+    </row>
+    <row r="31" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L31" s="100"/>
+      <c r="M31" s="104" t="str">
+        <f>M7</f>
+        <v>CPg1</v>
+      </c>
+      <c r="N31" s="104" t="str">
+        <f>N7</f>
+        <v>CPn1</v>
+      </c>
+      <c r="O31" s="85">
+        <v>1</v>
+      </c>
+      <c r="P31" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q31" s="109">
+        <v>4</v>
+      </c>
+      <c r="R31" s="100"/>
+    </row>
+    <row r="32" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L32" s="100"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="85">
+        <v>2</v>
+      </c>
+      <c r="P32" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="100"/>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L33" s="100"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="99" t="str">
+        <f>N9</f>
+        <v>CPn2</v>
+      </c>
+      <c r="O33" s="78">
+        <v>11</v>
+      </c>
+      <c r="P33" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="100"/>
+    </row>
+    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="100"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="78">
+        <v>12</v>
+      </c>
+      <c r="P34" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="100"/>
+    </row>
+    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="100"/>
+      <c r="M35" s="99">
+        <v>3</v>
+      </c>
+      <c r="N35" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="78">
+        <v>13</v>
+      </c>
+      <c r="P35" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="100"/>
+    </row>
+    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="78">
+        <v>14</v>
+      </c>
+      <c r="P36" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="100"/>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="O37" s="78">
+        <v>15</v>
+      </c>
+      <c r="P37" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="100"/>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="78">
+        <v>16</v>
+      </c>
+      <c r="P38" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="R23:R38"/>
+    <mergeCell ref="L23:L38"/>
+    <mergeCell ref="Q23:Q30"/>
+    <mergeCell ref="Q31:Q38"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="Q7:Q14"/>
+    <mergeCell ref="Q15:Q22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="R7:R22"/>
+    <mergeCell ref="L7:L22"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M23:M26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
+++ b/PDMSCore/wwwroot/TestDB/StrukturaDB.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Martin\Osobni\Programovani\GitHubRepo\PDMSCore\PDMSCore\wwwroot\TestDB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12120" tabRatio="633" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
     <author>Martin Svarovsky</author>
   </authors>
   <commentList>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
     <author>Martin Svarovsky</author>
   </authors>
   <commentList>
-    <comment ref="S2" authorId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,27 +1194,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,35 +1236,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,7 +1544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1574,31 +1579,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="F1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
+      <c r="N1" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1862,17 +1867,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="K11" s="88" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="K11" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="88"/>
+      <c r="L11" s="93"/>
       <c r="N11">
         <v>4</v>
       </c>
@@ -1899,11 +1904,11 @@
       <c r="E12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
       <c r="K12" s="10" t="s">
         <v>46</v>
       </c>
@@ -2164,12 +2169,12 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="5"/>
       <c r="N21">
         <v>9</v>
@@ -2343,20 +2348,20 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="G30" s="89" t="s">
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="G30" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
       <c r="N30">
         <v>15</v>
       </c>
@@ -2722,17 +2727,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="E43" s="88" t="s">
+      <c r="C43" s="94"/>
+      <c r="E43" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -2952,13 +2957,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -3114,6 +3119,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="A11:E11"/>
@@ -3122,11 +3132,6 @@
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3167,12 +3172,12 @@
       <c r="H1" s="96"/>
       <c r="I1" s="66"/>
       <c r="J1" s="67"/>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
@@ -3822,7 +3827,7 @@
   <dimension ref="L2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="M15" sqref="M15:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,10 +3848,10 @@
       <c r="M2" s="98"/>
     </row>
     <row r="3" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="108"/>
+      <c r="N3" s="111"/>
     </row>
     <row r="4" spans="12:18" x14ac:dyDescent="0.25">
       <c r="N4" s="112" t="s">
@@ -3889,10 +3894,10 @@
       <c r="L7" s="99">
         <v>1</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="105" t="s">
         <v>194</v>
       </c>
       <c r="O7" s="85">
@@ -3901,7 +3906,7 @@
       <c r="P7" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="109">
+      <c r="Q7" s="102">
         <v>1</v>
       </c>
       <c r="R7" s="99">
@@ -3910,7 +3915,7 @@
     </row>
     <row r="8" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L8" s="100"/>
-      <c r="M8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="101"/>
       <c r="O8" s="85">
         <v>2</v>
@@ -3918,12 +3923,12 @@
       <c r="P8" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" s="110"/>
+      <c r="Q8" s="103"/>
       <c r="R8" s="100"/>
     </row>
     <row r="9" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L9" s="100"/>
-      <c r="M9" s="105"/>
+      <c r="M9" s="106"/>
       <c r="N9" s="99" t="s">
         <v>195</v>
       </c>
@@ -3933,12 +3938,12 @@
       <c r="P9" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="103"/>
       <c r="R9" s="100"/>
     </row>
     <row r="10" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L10" s="100"/>
-      <c r="M10" s="106"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="101"/>
       <c r="O10" s="78">
         <v>4</v>
@@ -3946,7 +3951,7 @@
       <c r="P10" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="Q10" s="110"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="100"/>
     </row>
     <row r="11" spans="12:18" x14ac:dyDescent="0.25">
@@ -3963,7 +3968,7 @@
       <c r="P11" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="Q11" s="110"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="100"/>
     </row>
     <row r="12" spans="12:18" x14ac:dyDescent="0.25">
@@ -3976,7 +3981,7 @@
       <c r="P12" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="Q12" s="110"/>
+      <c r="Q12" s="103"/>
       <c r="R12" s="100"/>
     </row>
     <row r="13" spans="12:18" x14ac:dyDescent="0.25">
@@ -3991,7 +3996,7 @@
       <c r="P13" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="Q13" s="110"/>
+      <c r="Q13" s="103"/>
       <c r="R13" s="100"/>
     </row>
     <row r="14" spans="12:18" x14ac:dyDescent="0.25">
@@ -4004,16 +4009,16 @@
       <c r="P14" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="111"/>
+      <c r="Q14" s="104"/>
       <c r="R14" s="100"/>
     </row>
     <row r="15" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L15" s="100"/>
-      <c r="M15" s="104" t="str">
+      <c r="M15" s="105" t="str">
         <f>M7</f>
         <v>CPg1</v>
       </c>
-      <c r="N15" s="104" t="str">
+      <c r="N15" s="105" t="str">
         <f>N7</f>
         <v>CPn1</v>
       </c>
@@ -4023,14 +4028,14 @@
       <c r="P15" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="Q15" s="109">
+      <c r="Q15" s="102">
         <v>2</v>
       </c>
       <c r="R15" s="100"/>
     </row>
     <row r="16" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L16" s="100"/>
-      <c r="M16" s="105"/>
+      <c r="M16" s="106"/>
       <c r="N16" s="101"/>
       <c r="O16" s="85">
         <v>2</v>
@@ -4038,12 +4043,12 @@
       <c r="P16" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="Q16" s="110"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="100"/>
     </row>
     <row r="17" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L17" s="100"/>
-      <c r="M17" s="105"/>
+      <c r="M17" s="106"/>
       <c r="N17" s="99" t="str">
         <f>N9</f>
         <v>CPn2</v>
@@ -4054,12 +4059,12 @@
       <c r="P17" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="Q17" s="110"/>
+      <c r="Q17" s="103"/>
       <c r="R17" s="100"/>
     </row>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L18" s="100"/>
-      <c r="M18" s="106"/>
+      <c r="M18" s="107"/>
       <c r="N18" s="101"/>
       <c r="O18" s="78">
         <v>4</v>
@@ -4067,7 +4072,7 @@
       <c r="P18" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="Q18" s="110"/>
+      <c r="Q18" s="103"/>
       <c r="R18" s="100"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
@@ -4084,7 +4089,7 @@
       <c r="P19" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="110"/>
+      <c r="Q19" s="103"/>
       <c r="R19" s="100"/>
     </row>
     <row r="20" spans="12:18" x14ac:dyDescent="0.25">
@@ -4097,7 +4102,7 @@
       <c r="P20" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="Q20" s="110"/>
+      <c r="Q20" s="103"/>
       <c r="R20" s="100"/>
     </row>
     <row r="21" spans="12:18" x14ac:dyDescent="0.25">
@@ -4112,7 +4117,7 @@
       <c r="P21" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="Q21" s="110"/>
+      <c r="Q21" s="103"/>
       <c r="R21" s="100"/>
     </row>
     <row r="22" spans="12:18" x14ac:dyDescent="0.25">
@@ -4125,18 +4130,18 @@
       <c r="P22" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="111"/>
+      <c r="Q22" s="104"/>
       <c r="R22" s="101"/>
     </row>
     <row r="23" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L23" s="99">
         <v>2</v>
       </c>
-      <c r="M23" s="104" t="str">
+      <c r="M23" s="105" t="str">
         <f>M7</f>
         <v>CPg1</v>
       </c>
-      <c r="N23" s="104" t="str">
+      <c r="N23" s="105" t="str">
         <f>N7</f>
         <v>CPn1</v>
       </c>
@@ -4146,7 +4151,7 @@
       <c r="P23" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="Q23" s="109">
+      <c r="Q23" s="102">
         <v>3</v>
       </c>
       <c r="R23" s="99">
@@ -4155,7 +4160,7 @@
     </row>
     <row r="24" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L24" s="100"/>
-      <c r="M24" s="105"/>
+      <c r="M24" s="106"/>
       <c r="N24" s="101"/>
       <c r="O24" s="85">
         <v>2</v>
@@ -4163,12 +4168,12 @@
       <c r="P24" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="110"/>
+      <c r="Q24" s="103"/>
       <c r="R24" s="100"/>
     </row>
     <row r="25" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L25" s="100"/>
-      <c r="M25" s="105"/>
+      <c r="M25" s="106"/>
       <c r="N25" s="99" t="str">
         <f>N9</f>
         <v>CPn2</v>
@@ -4179,12 +4184,12 @@
       <c r="P25" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="Q25" s="110"/>
+      <c r="Q25" s="103"/>
       <c r="R25" s="100"/>
     </row>
     <row r="26" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L26" s="100"/>
-      <c r="M26" s="106"/>
+      <c r="M26" s="107"/>
       <c r="N26" s="101"/>
       <c r="O26" s="78">
         <v>12</v>
@@ -4192,7 +4197,7 @@
       <c r="P26" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="Q26" s="110"/>
+      <c r="Q26" s="103"/>
       <c r="R26" s="100"/>
     </row>
     <row r="27" spans="12:18" x14ac:dyDescent="0.25">
@@ -4200,7 +4205,7 @@
       <c r="M27" s="99">
         <v>3</v>
       </c>
-      <c r="N27" s="102" t="s">
+      <c r="N27" s="108" t="s">
         <v>191</v>
       </c>
       <c r="O27" s="78">
@@ -4209,26 +4214,26 @@
       <c r="P27" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="Q27" s="110"/>
+      <c r="Q27" s="103"/>
       <c r="R27" s="100"/>
     </row>
     <row r="28" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L28" s="100"/>
       <c r="M28" s="100"/>
-      <c r="N28" s="103"/>
+      <c r="N28" s="109"/>
       <c r="O28" s="78">
         <v>14</v>
       </c>
       <c r="P28" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="Q28" s="110"/>
+      <c r="Q28" s="103"/>
       <c r="R28" s="100"/>
     </row>
     <row r="29" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L29" s="100"/>
       <c r="M29" s="100"/>
-      <c r="N29" s="102" t="s">
+      <c r="N29" s="108" t="s">
         <v>192</v>
       </c>
       <c r="O29" s="78">
@@ -4237,29 +4242,29 @@
       <c r="P29" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="Q29" s="110"/>
+      <c r="Q29" s="103"/>
       <c r="R29" s="100"/>
     </row>
     <row r="30" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L30" s="100"/>
       <c r="M30" s="101"/>
-      <c r="N30" s="103"/>
+      <c r="N30" s="109"/>
       <c r="O30" s="78">
         <v>16</v>
       </c>
       <c r="P30" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="Q30" s="111"/>
+      <c r="Q30" s="104"/>
       <c r="R30" s="100"/>
     </row>
     <row r="31" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L31" s="100"/>
-      <c r="M31" s="104" t="str">
+      <c r="M31" s="105" t="str">
         <f>M7</f>
         <v>CPg1</v>
       </c>
-      <c r="N31" s="104" t="str">
+      <c r="N31" s="105" t="str">
         <f>N7</f>
         <v>CPn1</v>
       </c>
@@ -4269,14 +4274,14 @@
       <c r="P31" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="Q31" s="109">
+      <c r="Q31" s="102">
         <v>4</v>
       </c>
       <c r="R31" s="100"/>
     </row>
     <row r="32" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L32" s="100"/>
-      <c r="M32" s="105"/>
+      <c r="M32" s="106"/>
       <c r="N32" s="101"/>
       <c r="O32" s="85">
         <v>2</v>
@@ -4284,12 +4289,12 @@
       <c r="P32" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="Q32" s="110"/>
+      <c r="Q32" s="103"/>
       <c r="R32" s="100"/>
     </row>
     <row r="33" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L33" s="100"/>
-      <c r="M33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="99" t="str">
         <f>N9</f>
         <v>CPn2</v>
@@ -4300,12 +4305,12 @@
       <c r="P33" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="Q33" s="110"/>
+      <c r="Q33" s="103"/>
       <c r="R33" s="100"/>
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L34" s="100"/>
-      <c r="M34" s="106"/>
+      <c r="M34" s="107"/>
       <c r="N34" s="101"/>
       <c r="O34" s="78">
         <v>12</v>
@@ -4313,7 +4318,7 @@
       <c r="P34" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="Q34" s="110"/>
+      <c r="Q34" s="103"/>
       <c r="R34" s="100"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.25">
@@ -4321,7 +4326,7 @@
       <c r="M35" s="99">
         <v>3</v>
       </c>
-      <c r="N35" s="102" t="s">
+      <c r="N35" s="108" t="s">
         <v>191</v>
       </c>
       <c r="O35" s="78">
@@ -4330,26 +4335,26 @@
       <c r="P35" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="Q35" s="110"/>
+      <c r="Q35" s="103"/>
       <c r="R35" s="100"/>
     </row>
     <row r="36" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L36" s="100"/>
       <c r="M36" s="100"/>
-      <c r="N36" s="103"/>
+      <c r="N36" s="109"/>
       <c r="O36" s="78">
         <v>14</v>
       </c>
       <c r="P36" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="Q36" s="110"/>
+      <c r="Q36" s="103"/>
       <c r="R36" s="100"/>
     </row>
     <row r="37" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L37" s="100"/>
       <c r="M37" s="100"/>
-      <c r="N37" s="102" t="s">
+      <c r="N37" s="108" t="s">
         <v>192</v>
       </c>
       <c r="O37" s="78">
@@ -4358,34 +4363,30 @@
       <c r="P37" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="Q37" s="110"/>
+      <c r="Q37" s="103"/>
       <c r="R37" s="100"/>
     </row>
     <row r="38" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L38" s="101"/>
       <c r="M38" s="101"/>
-      <c r="N38" s="103"/>
+      <c r="N38" s="109"/>
       <c r="O38" s="78">
         <v>16</v>
       </c>
       <c r="P38" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="Q38" s="111"/>
+      <c r="Q38" s="104"/>
       <c r="R38" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R23:R38"/>
-    <mergeCell ref="L23:L38"/>
-    <mergeCell ref="Q23:Q30"/>
-    <mergeCell ref="Q31:Q38"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="R7:R22"/>
+    <mergeCell ref="L7:L22"/>
     <mergeCell ref="Q7:Q14"/>
     <mergeCell ref="Q15:Q22"/>
     <mergeCell ref="N11:N12"/>
@@ -4400,12 +4401,16 @@
     <mergeCell ref="M19:M22"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="R7:R22"/>
-    <mergeCell ref="L7:L22"/>
+    <mergeCell ref="R23:R38"/>
+    <mergeCell ref="L23:L38"/>
+    <mergeCell ref="Q23:Q30"/>
+    <mergeCell ref="Q31:Q38"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N37:N38"/>
     <mergeCell ref="M27:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="N27:N28"/>
